--- a/Dataset/Folds/Fold_5/Excel/90.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/90.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="705">
   <si>
     <t>Doi</t>
   </si>
@@ -2234,6 +2234,227 @@
   </si>
   <si>
     <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%0,                           Huilong%Chen%NULL%0,                           Weiming%Yan%NULL%0,                           Danlei%Yang%NULL%0,                           Guang%Chen%NULL%0,                           Ke%Ma%NULL%0,                           Dong%Xu%NULL%0,                           Haijing%Yu%NULL%0,                           Hongwu%Wang%NULL%0,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%0,                           Jia%Chen%NULL%0,                           Chen%Ding%NULL%0,                           Xiaoping%Zhang%NULL%0,                           Jiaquan%Huang%NULL%0,                           Meifang%Han%NULL%0,                           Shusheng%Li%NULL%0,                           Xiaoping%Luo%NULL%0,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                            Ting%Yu%NULL%0,                            Ronghui%Du%NULL%0,                            Guohui%Fan%NULL%0,                            Ying%Liu%NULL%0,                            Zhibo%Liu%NULL%0,                            Jie%Xiang%NULL%0,                            Yeming%Wang%NULL%0,                            Bin%Song%NULL%0,                            Xiaoying%Gu%NULL%0,                            Lulu%Guan%NULL%0,                            Yuan%Wei%NULL%0,                            Hui%Li%NULL%0,                            Xudong%Wu%NULL%0,                            Jiuyang%Xu%NULL%0,                            Shengjin%Tu%NULL%0,                            Yi%Zhang%NULL%0,                            Hua%Chen%NULL%0,                            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                            Kwan Ho%Lee%NULL%2,                            Kwan Ho%Lee%NULL%0,                            Jin Hong%Chung%NULL%2,                            Jin Hong%Chung%NULL%0,                            Kyeong-Cheol%Shin%NULL%2,                            Kyeong-Cheol%Shin%NULL%0,                            Eun Young%Choi%NULL%2,                            Eun Young%Choi%NULL%0,                            Hyun Jung%Jin%NULL%2,                            Hyun Jung%Jin%NULL%0,                            Jong Geol%Jang%NULL%2,                            Jong Geol%Jang%NULL%0,                            Wonhwa%Lee%NULL%2,                            Wonhwa%Lee%NULL%0,                            June Hong%Ahn%NULL%0,                            June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                            Dan%Xu%NULL%0,                            Shouzhi%Fu%NULL%0,                            Jun%Zhang%NULL%0,                            Xiaobo%Yang%NULL%0,                            Liang%Xu%NULL%0,                            Jiqian%Xu%NULL%0,                            Yongran%Wu%NULL%0,                            Chaolin%Huang%NULL%0,                            Yaqi%Ouyang%NULL%0,                            Luyu%Yang%NULL%0,                            Minghao%Fang%NULL%0,                            Hongwen%Xiao%NULL%0,                            Jing%Ma%NULL%0,                            Wei%Zhu%NULL%0,                            Song%Hu%NULL%0,                            Quan%Hu%NULL%0,                            Daoyin%Ding%NULL%0,                            Ming%Hu%NULL%0,                            Guochao%Zhu%NULL%0,                            Weijiang%Xu%NULL%0,                            Jun%Guo%NULL%0,                            Jinglong%Xu%NULL%0,                            Haitao%Yuan%NULL%0,                            Bin%Zhang%NULL%0,                            Zhui%Yu%yuzhui@whu.edu.cn%0,                            Dechang%Chen%icudechangchen@163.com%0,                            Shiying%Yuan%yuan_shiying@163.com%0,                            You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                            Shaobo%Shi%NULL%2,                            Shaobo%Shi%NULL%0,                            Jiling%Zhu%NULL%1,                            Jinzhi%Shi%NULL%1,                            Kai%Dai%NULL%1,                            Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                            Fang-Yang%Huang%NULL%0,                            Tian-Yuan%Xiong%NULL%0,                            Tian-Yuan%Xiong%NULL%0,                            Qi%Liu%NULL%0,                            Hong%Chen%NULL%0,                            Hui%Wang%NULL%0,                            He%Huang%NULL%0,                            Yi-Chun%Luo%NULL%0,                            Xuan%Zhou%NULL%0,                            Zhi-Yue%Liu%NULL%0,                            Yong%Peng%NULL%0,                            Yuan-Ning%Xu%NULL%0,                            Bo%Wang%NULL%0,                            Ying-Ying%Yang%NULL%0,                            Zong-An%Liang%NULL%0,                            Xue-Zhong%Lei%NULL%0,                            Yang%Ge%NULL%0,                            Ming%Yang%NULL%0,                            Ling%Zhang%NULL%0,                            Ming-Quan%Zeng%NULL%0,                            He%Yu%NULL%0,                            Kai%Liu%NULL%0,                            Yu-Heng%Jia%NULL%0,                            Bernard D%Prendergast%NULL%0,                            Wei-Min%Li%NULL%0,                            Wei-Min%Li%NULL%0,                            Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                            Shuyun%Xu%NULL%0,                            Muqing%Yu%NULL%0,                            Ke%Wang%NULL%0,                            Yu%Tao%NULL%0,                            Ying%Zhou%NULL%0,                            Jing%Shi%NULL%0,                            Min%Zhou%NULL%0,                            Bo%Wu%NULL%0,                            Zhenyu%Yang%NULL%0,                            Cong%Zhang%NULL%0,                            Junqing%Yue%NULL%0,                            Zhiguo%Zhang%NULL%0,                            Harald%Renz%NULL%0,                            Xiansheng%Liu%NULL%0,                            Jungang%Xie%NULL%0,                            Min%Xie%NULL%0,                            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                            Kipp W.%Johnson%NULL%1,                            James L.%Januzzi%NULL%1,                            Adam J.%Russak%NULL%1,                            Ishan%Paranjpe%NULL%0,                            Felix%Richter%NULL%0,                            Shan%Zhao%NULL%0,                            Sulaiman%Somani%NULL%0,                            Tielman%Van Vleck%NULL%1,                            Akhil%Vaid%NULL%0,                            Fayzan%Chaudhry%NULL%1,                            Jessica K.%De Freitas%NULL%1,                            Zahi A.%Fayad%NULL%1,                            Sean P.%Pinney%NULL%1,                            Matthew%Levin%NULL%1,                            Alexander%Charney%NULL%1,                            Emilia%Bagiella%NULL%0,                            Jagat%Narula%NULL%0,                            Benjamin S.%Glicksberg%NULL%1,                            Girish%Nadkarni%NULL%1,                            Donna M.%Mancini%NULL%1,                            Valentin%Fuster%NULL%0,                            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%0,                            Xingwang%Li%NULL%0,                            Lili%Ren%NULL%0,                            Jianping%Zhao%NULL%0,                            Yi%Hu%NULL%0,                            Li%Zhang%NULL%0,                            Guohui%Fan%NULL%0,                            Jiuyang%Xu%NULL%0,                            Xiaoying%Gu%NULL%0,                            Zhenshun%Cheng%NULL%0,                            Ting%Yu%NULL%0,                            Jiaan%Xia%NULL%0,                            Yuan%Wei%NULL%0,                            Wenjuan%Wu%NULL%0,                            Xuelei%Xie%NULL%0,                            Wen%Yin%NULL%0,                            Hui%Li%NULL%0,                            Min%Liu%NULL%0,                            Yan%Xiao%NULL%0,                            Hong%Gao%NULL%0,                            Li%Guo%NULL%0,                            Jungang%Xie%NULL%0,                            Guangfa%Wang%NULL%0,                            Rongmeng%Jiang%NULL%0,                            Zhancheng%Gao%NULL%0,                            Qi%Jin%NULL%0,                            Jianwei%Wang%wangjw28@163.com%0,                            Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                            Linlin%Xie%NULL%1,                            Rui%Liu%NULL%1,                            Jie%Yang%NULL%0,                            Fang%Liu%NULL%2,                            Kailang%Wu%NULL%2,                            Lang%Chen%NULL%1,                            Wei%Hou%NULL%0,                            Yong%Feng%yongfeng@whu.edu.cn%0,                            Chengliang%Zhu%xinchengzhu@163.com%2,                            Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                            Bo%Hu%NULL%1,                            Yao%Zhang%NULL%0,                            Hao%Wang%NULL%0,                            Xiaoyang%Zhou%NULL%1,                            Wei%Hu%NULL%1,                            Yuting%Cheng%NULL%1,                            Jie%Yan%NULL%0,                            Haiqin%Ping%NULL%1,                            Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                            Xien%Gui%NULL%1,                            Yongxi%Zhang%NULL%0,                            Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%0,                            Jiqian%Xu%NULL%0,                            Huaqing%Shu%NULL%0,                            Jia'an%Xia%NULL%0,                            Hong%Liu%NULL%0,                            Yongran%Wu%NULL%0,                            Lu%Zhang%NULL%0,                            Zhui%Yu%NULL%0,                            Minghao%Fang%NULL%0,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%0,                            Shangwen%Pan%NULL%0,                            Xiaojing%Zou%NULL%0,                            Shiying%Yuan%NULL%0,                            You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                            Miao%Yu%NULL%0,                            Tian%Xie%NULL%0,                            Fen%Yang%NULL%0,                            Hong-Bo%Wang%NULL%0,                            Zhao-Hui%Wang%NULL%0,                            Ming%Li%NULL%0,                            Xing-Li%Gao%NULL%0,                            Bing-Jie%Lv%NULL%0,                            Shi-Jia%Wang%NULL%0,                            Xiao-Bo%Zhang%NULL%0,                            Shao-Lin%He%NULL%0,                            Zhi-Hua%Qiu%NULL%0,                            Yu-Hua%Liao%NULL%0,                            Zi-Hua%Zhou%NULL%0,                            Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                            Yongzhen%Fan%NULL%0,                            Ming%Chen%NULL%0,                            Xiaoyan%Wu%NULL%0,                            Lin%Zhang%NULL%0,                            Tao%He%NULL%0,                            Hairong%Wang%NULL%0,                            Jing%Wan%NULL%0,                            Xinghuan%Wang%NULL%0,                            Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                            Wei%Liu%NULL%0,                            Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%0,                            Jin%Shang%NULL%1,                            Ling%Zhou%NULL%0,                            Ke%Wang%NULL%0,                            Fan%Leng%NULL%1,                            Shuang%Wei%NULL%0,                            Lei%Chen%NULL%1,                            Hui-Guo%Liu%NULL%0,                            Pei-Fang%Wei%NULL%0,                            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                            Di%Wu%NULL%0,                            Huilong%Chen%NULL%0,                            Weiming%Yan%NULL%0,                            Danlei%Yang%NULL%0,                            Guang%Chen%NULL%0,                            Ke%Ma%NULL%0,                            Dong%Xu%NULL%0,                            Haijing%Yu%NULL%0,                            Hongwu%Wang%NULL%0,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%0,                            Jia%Chen%NULL%0,                            Chen%Ding%NULL%0,                            Xiaoping%Zhang%NULL%0,                            Jiaquan%Huang%NULL%0,                            Meifang%Han%NULL%0,                            Shusheng%Li%NULL%0,                            Xiaoping%Luo%NULL%0,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                             Ting%Yu%NULL%0,                             Ronghui%Du%NULL%0,                             Guohui%Fan%NULL%0,                             Ying%Liu%NULL%0,                             Zhibo%Liu%NULL%0,                             Jie%Xiang%NULL%0,                             Yeming%Wang%NULL%0,                             Bin%Song%NULL%0,                             Xiaoying%Gu%NULL%0,                             Lulu%Guan%NULL%0,                             Yuan%Wei%NULL%0,                             Hui%Li%NULL%0,                             Xudong%Wu%NULL%0,                             Jiuyang%Xu%NULL%0,                             Shengjin%Tu%NULL%0,                             Yi%Zhang%NULL%0,                             Hua%Chen%NULL%0,                             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0,                             Kwan Ho%Lee%NULL%2,                             Kwan Ho%Lee%NULL%0,                             Jin Hong%Chung%NULL%2,                             Jin Hong%Chung%NULL%0,                             Kyeong-Cheol%Shin%NULL%2,                             Kyeong-Cheol%Shin%NULL%0,                             Eun Young%Choi%NULL%2,                             Eun Young%Choi%NULL%0,                             Hyun Jung%Jin%NULL%2,                             Hyun Jung%Jin%NULL%0,                             Jong Geol%Jang%NULL%2,                             Jong Geol%Jang%NULL%0,                             Wonhwa%Lee%NULL%2,                             Wonhwa%Lee%NULL%0,                             June Hong%Ahn%NULL%0,                             June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0,                             Dan%Xu%NULL%0,                             Shouzhi%Fu%NULL%0,                             Jun%Zhang%NULL%0,                             Xiaobo%Yang%NULL%0,                             Liang%Xu%NULL%0,                             Jiqian%Xu%NULL%0,                             Yongran%Wu%NULL%0,                             Chaolin%Huang%NULL%0,                             Yaqi%Ouyang%NULL%0,                             Luyu%Yang%NULL%0,                             Minghao%Fang%NULL%0,                             Hongwen%Xiao%NULL%0,                             Jing%Ma%NULL%0,                             Wei%Zhu%NULL%0,                             Song%Hu%NULL%0,                             Quan%Hu%NULL%0,                             Daoyin%Ding%NULL%0,                             Ming%Hu%NULL%0,                             Guochao%Zhu%NULL%0,                             Weijiang%Xu%NULL%0,                             Jun%Guo%NULL%0,                             Jinglong%Xu%NULL%0,                             Haitao%Yuan%NULL%0,                             Bin%Zhang%NULL%0,                             Zhui%Yu%yuzhui@whu.edu.cn%0,                             Dechang%Chen%icudechangchen@163.com%0,                             Shiying%Yuan%yuan_shiying@163.com%0,                             You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0,                             Shaobo%Shi%NULL%2,                             Shaobo%Shi%NULL%0,                             Jiling%Zhu%NULL%1,                             Jinzhi%Shi%NULL%1,                             Kai%Dai%NULL%1,                             Xiaobei%Chen%121278395@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0,                             Fang-Yang%Huang%NULL%0,                             Tian-Yuan%Xiong%NULL%0,                             Tian-Yuan%Xiong%NULL%0,                             Qi%Liu%NULL%0,                             Hong%Chen%NULL%0,                             Hui%Wang%NULL%0,                             He%Huang%NULL%0,                             Yi-Chun%Luo%NULL%0,                             Xuan%Zhou%NULL%0,                             Zhi-Yue%Liu%NULL%0,                             Yong%Peng%NULL%0,                             Yuan-Ning%Xu%NULL%0,                             Bo%Wang%NULL%0,                             Ying-Ying%Yang%NULL%0,                             Zong-An%Liang%NULL%0,                             Xue-Zhong%Lei%NULL%0,                             Yang%Ge%NULL%0,                             Ming%Yang%NULL%0,                             Ling%Zhang%NULL%0,                             Ming-Quan%Zeng%NULL%0,                             He%Yu%NULL%0,                             Kai%Liu%NULL%0,                             Yu-Heng%Jia%NULL%0,                             Bernard D%Prendergast%NULL%0,                             Wei-Min%Li%NULL%0,                             Wei-Min%Li%NULL%0,                             Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,                             Shuyun%Xu%NULL%0,                             Muqing%Yu%NULL%0,                             Ke%Wang%NULL%0,                             Yu%Tao%NULL%0,                             Ying%Zhou%NULL%0,                             Jing%Shi%NULL%0,                             Min%Zhou%NULL%0,                             Bo%Wu%NULL%0,                             Zhenyu%Yang%NULL%0,                             Cong%Zhang%NULL%0,                             Junqing%Yue%NULL%0,                             Zhiguo%Zhang%NULL%0,                             Harald%Renz%NULL%0,                             Xiansheng%Liu%NULL%0,                             Jungang%Xie%NULL%0,                             Min%Xie%NULL%0,                             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%1,                             Kipp W.%Johnson%NULL%1,                             James L.%Januzzi%NULL%1,                             Adam J.%Russak%NULL%1,                             Ishan%Paranjpe%NULL%0,                             Felix%Richter%NULL%0,                             Shan%Zhao%NULL%0,                             Sulaiman%Somani%NULL%0,                             Tielman%Van Vleck%NULL%1,                             Akhil%Vaid%NULL%0,                             Fayzan%Chaudhry%NULL%1,                             Jessica K.%De Freitas%NULL%1,                             Zahi A.%Fayad%NULL%1,                             Sean P.%Pinney%NULL%1,                             Matthew%Levin%NULL%1,                             Alexander%Charney%NULL%1,                             Emilia%Bagiella%NULL%0,                             Jagat%Narula%NULL%0,                             Benjamin S.%Glicksberg%NULL%1,                             Girish%Nadkarni%NULL%1,                             Donna M.%Mancini%NULL%1,                             Valentin%Fuster%NULL%0,                             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                             Yeming%Wang%NULL%0,                             Xingwang%Li%NULL%0,                             Lili%Ren%NULL%0,                             Jianping%Zhao%NULL%0,                             Yi%Hu%NULL%0,                             Li%Zhang%NULL%0,                             Guohui%Fan%NULL%0,                             Jiuyang%Xu%NULL%0,                             Xiaoying%Gu%NULL%0,                             Zhenshun%Cheng%NULL%0,                             Ting%Yu%NULL%0,                             Jiaan%Xia%NULL%0,                             Yuan%Wei%NULL%0,                             Wenjuan%Wu%NULL%0,                             Xuelei%Xie%NULL%0,                             Wen%Yin%NULL%0,                             Hui%Li%NULL%0,                             Min%Liu%NULL%0,                             Yan%Xiao%NULL%0,                             Hong%Gao%NULL%0,                             Li%Guo%NULL%0,                             Jungang%Xie%NULL%0,                             Guangfa%Wang%NULL%0,                             Rongmeng%Jiang%NULL%0,                             Zhancheng%Gao%NULL%0,                             Qi%Jin%NULL%0,                             Jianwei%Wang%wangjw28@163.com%0,                             Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0,                             Linlin%Xie%NULL%1,                             Rui%Liu%NULL%1,                             Jie%Yang%NULL%0,                             Fang%Liu%NULL%2,                             Kailang%Wu%NULL%2,                             Lang%Chen%NULL%1,                             Wei%Hou%NULL%0,                             Yong%Feng%yongfeng@whu.edu.cn%0,                             Chengliang%Zhu%xinchengzhu@163.com%2,                             Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0,                             Bo%Hu%NULL%1,                             Yao%Zhang%NULL%0,                             Hao%Wang%NULL%0,                             Xiaoyang%Zhou%NULL%1,                             Wei%Hu%NULL%1,                             Yuting%Cheng%NULL%1,                             Jie%Yan%NULL%1,                             Haiqin%Ping%NULL%1,                             Qing%Zhou%qingzhou.wh.edu@hotmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%1,                             Xien%Gui%NULL%1,                             Yongxi%Zhang%NULL%0,                             Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                             Yuan%Yu%NULL%0,                             Jiqian%Xu%NULL%0,                             Huaqing%Shu%NULL%0,                             Jia'an%Xia%NULL%0,                             Hong%Liu%NULL%0,                             Yongran%Wu%NULL%0,                             Lu%Zhang%NULL%0,                             Zhui%Yu%NULL%0,                             Minghao%Fang%NULL%0,                             Ting%Yu%NULL%0,                             Yaxin%Wang%NULL%0,                             Shangwen%Pan%NULL%0,                             Xiaojing%Zou%NULL%0,                             Shiying%Yuan%NULL%0,                             You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0,                             Miao%Yu%NULL%0,                             Tian%Xie%NULL%0,                             Fen%Yang%NULL%0,                             Hong-Bo%Wang%NULL%0,                             Zhao-Hui%Wang%NULL%0,                             Ming%Li%NULL%0,                             Xing-Li%Gao%NULL%0,                             Bing-Jie%Lv%NULL%0,                             Shi-Jia%Wang%NULL%0,                             Xiao-Bo%Zhang%NULL%0,                             Shao-Lin%He%NULL%0,                             Zhi-Hua%Qiu%NULL%0,                             Yu-Hua%Liao%NULL%0,                             Zi-Hua%Zhou%NULL%0,                             Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0,                             Yongzhen%Fan%NULL%0,                             Ming%Chen%NULL%0,                             Xiaoyan%Wu%NULL%0,                             Lin%Zhang%NULL%0,                             Tao%He%NULL%0,                             Hairong%Wang%NULL%0,                             Jing%Wan%NULL%0,                             Xinghuan%Wang%NULL%0,                             Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,                             Wei%Liu%NULL%0,                             Kui%Liu%NULL%0,                             Yuan-Yuan%Fang%NULL%0,                             Jin%Shang%NULL%1,                             Ling%Zhou%NULL%0,                             Ke%Wang%NULL%0,                             Fan%Leng%NULL%1,                             Shuang%Wei%NULL%0,                             Lei%Chen%NULL%1,                             Hui-Guo%Liu%NULL%0,                             Pei-Fang%Wei%NULL%0,                             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                             Di%Wu%NULL%0,                             Huilong%Chen%NULL%0,                             Weiming%Yan%NULL%0,                             Danlei%Yang%NULL%0,                             Guang%Chen%NULL%0,                             Ke%Ma%NULL%0,                             Dong%Xu%NULL%0,                             Haijing%Yu%NULL%0,                             Hongwu%Wang%NULL%0,                             Tao%Wang%NULL%0,                             Wei%Guo%NULL%0,                             Jia%Chen%NULL%0,                             Chen%Ding%NULL%0,                             Xiaoping%Zhang%NULL%0,                             Jiaquan%Huang%NULL%0,                             Meifang%Han%NULL%0,                             Shusheng%Li%NULL%0,                             Xiaoping%Luo%NULL%0,                             Jianping%Zhao%NULL%0,                             Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%0, Guohui%Fan%NULL%0, Ying%Liu%NULL%0, Zhibo%Liu%NULL%0, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%0, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%0, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%0, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%0, Yi%Zhang%NULL%0, Hua%Chen%NULL%0, Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>Although some information on the epidemiology of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) and a few selected cases has been reported, data on the clinical characteristics and outcomes of patients hospitalized therewith in South Korea are lacking.
+ We conducted a retrospective single-center study of 98 consecutive hospitalized patients with confirmed SARS-CoV-2 infection at Yeungnam University Medical Center in Daegu, South Korea.
+ Sixty patients were women (61.2%), and the mean age was 55.4±17.1 years.
+ Thirteen patients (13.3%) were treated in the intensive care unit (ICU).
+ The mean interval from symptom onset to hospitalization was 7.7±4.5 days.
+ Patients who received ICU care were significantly older and were more likely to have diabetes mellitus.
+ The National Early Warning Score on the day of admission was significantly higher in patients requiring ICU care.
+ Acute respiratory distress syndrome (13/13 patients; 100%), septic shock (9/13; 69.2%), acute cardiac injury (9/13; 69.2%), and acute kidney injury (8/13; 61.5%) were more common in patients who received ICU care.
+ All patients received antibiotic therapy, and most (97/98 patients; 99.0%) received antiviral therapy (lopinavir/ritonavir).
+ Hydroxychloroquine was used in 79 patients (80.6%), and glucocorticoid therapy was used in 18 patients (18.4%).
+ In complete blood counts, lymphopenia was the most common finding (40/98 patients; 40.8%).
+ Levels of all proinflammatory cytokines were significantly higher in ICU patients.
+ As of March 29, 2020, the mortality rate was 5.1%.
+ Here, we report the clinical characteristics and laboratory findings of SARS-CoV-2 patients in South Korea up to March 29, 2020.</t>
+  </si>
+  <si>
+    <t>[Kyung Soo%Hong%NULL%0, Kwan Ho%Lee%NULL%0, Kwan Ho%Lee%NULL%0, Jin Hong%Chung%NULL%0, Jin Hong%Chung%NULL%0, Kyeong-Cheol%Shin%NULL%0, Kyeong-Cheol%Shin%NULL%0, Eun Young%Choi%NULL%0, Eun Young%Choi%NULL%0, Hyun Jung%Jin%NULL%0, Hyun Jung%Jin%NULL%0, Jong Geol%Jang%NULL%0, Jong Geol%Jang%NULL%0, Wonhwa%Lee%NULL%0, Wonhwa%Lee%NULL%0, June Hong%Ahn%NULL%0, June Hong%Ahn%NULL%0]</t>
+  </si>
+  <si>
+    <t>Yonsei University College of Medicine</t>
+  </si>
+  <si>
+    <t>[Yuan%Yu%NULL%0, Dan%Xu%NULL%0, Shouzhi%Fu%NULL%0, Jun%Zhang%NULL%0, Xiaobo%Yang%NULL%0, Liang%Xu%NULL%0, Jiqian%Xu%NULL%0, Yongran%Wu%NULL%0, Chaolin%Huang%NULL%0, Yaqi%Ouyang%NULL%0, Luyu%Yang%NULL%0, Minghao%Fang%NULL%0, Hongwen%Xiao%NULL%0, Jing%Ma%NULL%0, Wei%Zhu%NULL%0, Song%Hu%NULL%0, Quan%Hu%NULL%0, Daoyin%Ding%NULL%0, Ming%Hu%NULL%0, Guochao%Zhu%NULL%0, Weijiang%Xu%NULL%0, Jun%Guo%NULL%0, Jinglong%Xu%NULL%0, Haitao%Yuan%NULL%0, Bin%Zhang%NULL%0, Zhui%Yu%yuzhui@whu.edu.cn%0, Dechang%Chen%icudechangchen@163.com%0, Shiying%Yuan%yuan_shiying@163.com%0, You%Shang%you_shanghust@163.com%0]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This retrospective study aimed to analyze the clinical characteristics and complications in death cases with novel coronavirus disease‐19 (COVID‐19).
+ We collected the medical records of 92 patients with COVID‐19, who died in the time period ranging from 6 January 2020 to 25 February 2020, in Renmin Hospital of Wuhan University and summarized the clinical characteristics of complications.
+ There were 91 death cases in which different complications were developed, including acute respiratory distress syndrome (ARDS) (73/91), myocardial injury (31/91), liver injury (15/91), renal insufficiency (14/91), multiple organ dysfunction syndrome (MODS) (14/91), and pneumothorax (1/91).
+ Among these patients, 83 patients had at least one complication.
+ However, one patient who died of recurrent gastrointestinal bleeding was not directly linked to COVID‐19. The main complications of deceased patients with COVID‐19 were ARDS, myocardial injury, liver injury, renal insufficiency, and MODS.
+</t>
+  </si>
+  <si>
+    <t>[Fan%Yang%NULL%0, Shaobo%Shi%NULL%0, Shaobo%Shi%NULL%0, Jiling%Zhu%NULL%0, Jinzhi%Shi%NULL%0, Kai%Dai%NULL%0, Xiaobei%Chen%121278395@qq.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Jia-Fu%Wei%NULL%0, Fang-Yang%Huang%NULL%0, Tian-Yuan%Xiong%NULL%0, Tian-Yuan%Xiong%NULL%0, Qi%Liu%NULL%0, Hong%Chen%NULL%0, Hui%Wang%NULL%0, He%Huang%NULL%0, Yi-Chun%Luo%NULL%0, Xuan%Zhou%NULL%0, Zhi-Yue%Liu%NULL%0, Yong%Peng%NULL%0, Yuan-Ning%Xu%NULL%0, Bo%Wang%NULL%0, Ying-Ying%Yang%NULL%0, Zong-An%Liang%NULL%0, Xue-Zhong%Lei%NULL%0, Yang%Ge%NULL%0, Ming%Yang%NULL%0, Ling%Zhang%NULL%0, Ming-Quan%Zeng%NULL%0, He%Yu%NULL%0, Kai%Liu%NULL%0, Yu-Heng%Jia%NULL%0, Bernard D%Prendergast%NULL%0, Wei-Min%Li%NULL%0, Wei-Min%Li%NULL%0, Mao%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0, Shuyun%Xu%NULL%0, Muqing%Yu%NULL%0, Ke%Wang%NULL%0, Yu%Tao%NULL%0, Ying%Zhou%NULL%0, Jing%Shi%NULL%0, Min%Zhou%NULL%0, Bo%Wu%NULL%0, Zhenyu%Yang%NULL%0, Cong%Zhang%NULL%0, Junqing%Yue%NULL%0, Zhiguo%Zhang%NULL%0, Harald%Renz%NULL%0, Xiansheng%Liu%NULL%0, Jungang%Xie%NULL%0, Min%Xie%NULL%0, Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Academy of Allergy, Asthma &amp;amp; Immunology</t>
+  </si>
+  <si>
+    <t>[Anuradha%Lala%NULL%0, Kipp W.%Johnson%NULL%1, James L.%Januzzi%NULL%1, Adam J.%Russak%NULL%1, Ishan%Paranjpe%NULL%0, Felix%Richter%NULL%0, Shan%Zhao%NULL%0, Sulaiman%Somani%NULL%0, Tielman%Van Vleck%NULL%1, Akhil%Vaid%NULL%0, Fayzan%Chaudhry%NULL%1, Jessica K.%De Freitas%NULL%1, Zahi A.%Fayad%NULL%0, Sean P.%Pinney%NULL%1, Matthew%Levin%NULL%1, Alexander%Charney%NULL%0, Emilia%Bagiella%NULL%0, Jagat%Narula%NULL%0, Benjamin S.%Glicksberg%NULL%0, Girish%Nadkarni%NULL%0, Donna M.%Mancini%NULL%1, Valentin%Fuster%NULL%0, NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Biomedical</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>An outbreak of severe acute respiratory syndrome novel coronavirus (SARS‐CoV‐2) epidemic spreads rapidly worldwide.
+ SARS‐CoV‐2 infection caused mildly to seriously and fatally respiratory, enteric, cardiovascular, and neurological diseases.
+ In this study, we detected and analyzed the main laboratory indicators related to heart injury, creatine kinase isoenzyme‐MB (CK‐MB), myohemoglobin (MYO), cardiac troponin I (ultra‐TnI), and N‐terminal pro‐brain natriuretic peptide (NT‐proBNP), in 273 patients with COVID‐19 and investigated the correlation between heart injury and severity of the disease.
+ It was found that higher concentration in venous blood of CK‐MB, MYO, ultra‐TnI, and NT‐proBNP were associated with the severity and case fatality rate of COVID‐19. Careful monitoring of the myocardiac enzyme profiles is of great importance in reducing the complications and mortality in patients with COVID‐19.</t>
+  </si>
+  <si>
+    <t>[Huan%Han%NULL%0, Linlin%Xie%NULL%0, Rui%Liu%NULL%0, Jie%Yang%NULL%0, Fang%Liu%NULL%0, Kailang%Wu%NULL%0, Lang%Chen%NULL%0, Wei%Hou%NULL%0, Yong%Feng%yongfeng@whu.edu.cn%0, Chengliang%Zhu%xinchengzhu@163.com%0, Chengliang%Zhu%xinchengzhu@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Qing%Deng%NULL%0, Bo%Hu%NULL%0, Yao%Zhang%NULL%0, Hao%Wang%NULL%0, Xiaoyang%Zhou%NULL%0, Wei%Hu%NULL%0, Yuting%Cheng%NULL%0, Jie%Yan%NULL%0, Haiqin%Ping%NULL%0, Qing%Zhou%qingzhou.wh.edu@hotmail.com%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives: To assess the role of essential organ-based comorbidities in the prognosis of COVID-19 patients.
+</t>
+  </si>
+  <si>
+    <t>[Rongrong%Yang%NULL%0, Xien%Gui%NULL%1, Yongxi%Zhang%NULL%0, Yong%Xiong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shao-Fang%Nie%NULL%0, Miao%Yu%NULL%0, Tian%Xie%NULL%0, Fen%Yang%NULL%0, Hong-Bo%Wang%NULL%0, Zhao-Hui%Wang%NULL%0, Ming%Li%NULL%0, Xing-Li%Gao%NULL%0, Bing-Jie%Lv%NULL%0, Shi-Jia%Wang%NULL%0, Xiao-Bo%Zhang%NULL%0, Shao-Lin%He%NULL%0, Zhi-Hua%Qiu%NULL%0, Yu-Hua%Liao%NULL%0, Zi-Hua%Zhou%NULL%0, Xiang%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%0, Ming%Chen%NULL%0, Xiaoyan%Wu%NULL%0, Lin%Zhang%NULL%0, Tao%He%NULL%0, Hairong%Wang%NULL%0, Jing%Wan%NULL%0, Xinghuan%Wang%NULL%0, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Jin%Shang%NULL%0, Ling%Zhou%NULL%0, Ke%Wang%NULL%0, Fan%Leng%NULL%0, Shuang%Wei%NULL%0, Lei%Chen%NULL%0, Hui-Guo%Liu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%0, Weiming%Yan%NULL%0, Danlei%Yang%NULL%0, Guang%Chen%NULL%0, Ke%Ma%NULL%0, Dong%Xu%NULL%0, Haijing%Yu%NULL%0, Hongwu%Wang%NULL%0, Tao%Wang%NULL%0, Wei%Guo%NULL%0, Jia%Chen%NULL%0, Chen%Ding%NULL%0, Xiaoping%Zhang%NULL%0, Jiaquan%Huang%NULL%0, Meifang%Han%NULL%0, Shusheng%Li%NULL%0, Xiaoping%Luo%NULL%0, Jianping%Zhao%NULL%0, Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2792,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2583,10 +2804,10 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3">
@@ -2597,25 +2818,25 @@
         <v>43907.0</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>621</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>462</v>
+        <v>94</v>
       </c>
       <c r="J3" t="s">
         <v>94</v>
@@ -2632,10 +2853,10 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
-        <v>622</v>
+        <v>674</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -2647,10 +2868,10 @@
         <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5">
@@ -2661,28 +2882,28 @@
         <v>43949.0</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>507</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
         <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>508</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
@@ -2693,25 +2914,25 @@
         <v>43977.0</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>462</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -2728,10 +2949,10 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>624</v>
+        <v>676</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2743,10 +2964,10 @@
         <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>468</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8">
@@ -2760,10 +2981,10 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>678</v>
       </c>
       <c r="E8" t="s">
-        <v>625</v>
+        <v>679</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -2775,10 +2996,10 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9">
@@ -2795,7 +3016,7 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="F9" t="s">
         <v>58</v>
@@ -2807,10 +3028,10 @@
         <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10">
@@ -2827,7 +3048,7 @@
         <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>627</v>
+        <v>683</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
@@ -2839,10 +3060,10 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11">
@@ -2859,7 +3080,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="F11" t="s">
         <v>68</v>
@@ -2871,10 +3092,10 @@
         <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12">
@@ -2891,7 +3112,7 @@
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>687</v>
       </c>
       <c r="F12" t="s">
         <v>73</v>
@@ -2903,10 +3124,10 @@
         <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13">
@@ -2920,10 +3141,10 @@
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>688</v>
       </c>
       <c r="E13" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="F13" t="s">
         <v>77</v>
@@ -2935,10 +3156,10 @@
         <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14">
@@ -2955,7 +3176,7 @@
         <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="F14" t="s">
         <v>82</v>
@@ -2967,10 +3188,10 @@
         <v>83</v>
       </c>
       <c r="I14" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15">
@@ -2984,10 +3205,10 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>692</v>
       </c>
       <c r="E15" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2999,10 +3220,10 @@
         <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>94</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16">
@@ -3019,7 +3240,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="F16" t="s">
         <v>92</v>
@@ -3031,10 +3252,10 @@
         <v>39</v>
       </c>
       <c r="I16" t="s">
-        <v>460</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>94</v>
+        <v>672</v>
       </c>
     </row>
     <row r="17">
@@ -3045,25 +3266,25 @@
         <v>44013.0</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>634</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>462</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
         <v>94</v>
@@ -3083,7 +3304,7 @@
         <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
@@ -3095,10 +3316,10 @@
         <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19">
@@ -3112,10 +3333,10 @@
         <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>698</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>699</v>
       </c>
       <c r="F19" t="s">
         <v>100</v>
@@ -3127,10 +3348,10 @@
         <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
-        <v>94</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20">
@@ -3147,7 +3368,7 @@
         <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>105</v>
@@ -3159,10 +3380,10 @@
         <v>39</v>
       </c>
       <c r="I20" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>94</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21">
@@ -3179,7 +3400,7 @@
         <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>703</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -3191,10 +3412,10 @@
         <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>464</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
